--- a/tests/testMaterials/CDS_SPARSE_2014_2015.xlsx
+++ b/tests/testMaterials/CDS_SPARSE_2014_2015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\tests\testMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D44425-F30B-4796-AAA0-2337F044CBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B823EB1E-0B73-4CE9-8ED7-FC3EB89B4FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,10 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,7 +425,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -468,7 +469,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>83</v>
       </c>
       <c r="B2">
@@ -512,7 +513,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>199</v>
       </c>
       <c r="B3">
@@ -556,7 +557,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>300</v>
       </c>
       <c r="B4">
@@ -600,7 +601,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>582</v>
       </c>
       <c r="B5">
@@ -644,7 +645,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>0</v>
       </c>
       <c r="B6">
@@ -688,7 +689,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>0</v>
       </c>
       <c r="B7">
@@ -732,7 +733,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8">
@@ -776,7 +777,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9">
@@ -820,7 +821,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>83</v>
       </c>
       <c r="B10">
@@ -864,7 +865,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>199</v>
       </c>
       <c r="B11">
@@ -908,7 +909,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>299</v>
       </c>
       <c r="B12">
@@ -952,7 +953,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>581</v>
       </c>
       <c r="B13">
@@ -996,7 +997,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>61</v>
       </c>
       <c r="B14">
@@ -1040,7 +1041,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>144</v>
       </c>
       <c r="B15">
@@ -1084,7 +1085,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>220</v>
       </c>
       <c r="B16">
@@ -1128,7 +1129,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>425</v>
       </c>
       <c r="B17">
@@ -1172,7 +1173,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>7</v>
       </c>
       <c r="B18">
@@ -1216,7 +1217,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>9</v>
       </c>
       <c r="B19">
@@ -1260,7 +1261,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>33</v>
       </c>
       <c r="B20">
@@ -1304,7 +1305,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>49</v>
       </c>
       <c r="B21">
@@ -1348,7 +1349,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>1</v>
       </c>
       <c r="B22">
@@ -1392,7 +1393,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="3">
         <v>5</v>
       </c>
       <c r="B23">
@@ -1436,7 +1437,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>3</v>
       </c>
       <c r="B24">
@@ -1480,7 +1481,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>9</v>
       </c>
       <c r="B25">
@@ -1524,7 +1525,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="3">
         <v>69</v>
       </c>
       <c r="B26">
@@ -1568,7 +1569,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="3">
         <v>158</v>
       </c>
       <c r="B27">
@@ -1612,7 +1613,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="3">
         <v>256</v>
       </c>
       <c r="B28">
@@ -1656,7 +1657,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="3">
         <v>483</v>
       </c>
       <c r="B29">
@@ -1700,7 +1701,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="3">
         <v>83</v>
       </c>
       <c r="B30">
@@ -1744,7 +1745,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="3">
         <v>79</v>
       </c>
       <c r="B31">
@@ -1788,7 +1789,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="3">
         <v>85.6</v>
       </c>
       <c r="B32">
@@ -1832,7 +1833,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="3">
         <v>83</v>
       </c>
       <c r="B33">
@@ -1876,6 +1877,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
       <c r="H34" s="1"/>
     </row>
   </sheetData>

--- a/tests/testMaterials/CDS_SPARSE_2014_2015.xlsx
+++ b/tests/testMaterials/CDS_SPARSE_2014_2015.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\tests\testMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B823EB1E-0B73-4CE9-8ED7-FC3EB89B4FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B273BB-54B2-4251-B75C-4FF8A4A312A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2014 Cohort" sheetId="1" r:id="rId1"/>
+    <sheet name="2014_Cohort" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -115,11 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +402,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +424,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -469,7 +468,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>83</v>
       </c>
       <c r="B2">
@@ -513,7 +512,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>199</v>
       </c>
       <c r="B3">
@@ -557,7 +556,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>300</v>
       </c>
       <c r="B4">
@@ -601,7 +600,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>582</v>
       </c>
       <c r="B5">
@@ -645,7 +644,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
@@ -689,7 +688,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
@@ -733,7 +732,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
@@ -777,7 +776,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
@@ -821,7 +820,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>83</v>
       </c>
       <c r="B10">
@@ -865,7 +864,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>199</v>
       </c>
       <c r="B11">
@@ -909,7 +908,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>299</v>
       </c>
       <c r="B12">
@@ -953,7 +952,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>581</v>
       </c>
       <c r="B13">
@@ -997,7 +996,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>61</v>
       </c>
       <c r="B14">
@@ -1041,7 +1040,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15">
         <v>144</v>
       </c>
       <c r="B15">
@@ -1085,7 +1084,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16">
         <v>220</v>
       </c>
       <c r="B16">
@@ -1129,7 +1128,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17">
         <v>425</v>
       </c>
       <c r="B17">
@@ -1173,7 +1172,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18">
         <v>7</v>
       </c>
       <c r="B18">
@@ -1217,7 +1216,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19">
         <v>9</v>
       </c>
       <c r="B19">
@@ -1261,7 +1260,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20">
         <v>33</v>
       </c>
       <c r="B20">
@@ -1305,7 +1304,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21">
         <v>49</v>
       </c>
       <c r="B21">
@@ -1349,7 +1348,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22">
         <v>1</v>
       </c>
       <c r="B22">
@@ -1393,7 +1392,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23">
         <v>5</v>
       </c>
       <c r="B23">
@@ -1437,7 +1436,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24">
         <v>3</v>
       </c>
       <c r="B24">
@@ -1481,7 +1480,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25">
         <v>9</v>
       </c>
       <c r="B25">
@@ -1525,7 +1524,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>69</v>
       </c>
       <c r="B26">
@@ -1569,7 +1568,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>158</v>
       </c>
       <c r="B27">
@@ -1613,7 +1612,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28">
         <v>256</v>
       </c>
       <c r="B28">
@@ -1657,7 +1656,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29">
         <v>483</v>
       </c>
       <c r="B29">
@@ -1701,7 +1700,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30">
         <v>83</v>
       </c>
       <c r="B30">
@@ -1745,7 +1744,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31">
         <v>79</v>
       </c>
       <c r="B31">
@@ -1789,7 +1788,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32">
         <v>85.6</v>
       </c>
       <c r="B32">
@@ -1833,7 +1832,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33">
         <v>83</v>
       </c>
       <c r="B33">
@@ -1877,7 +1876,6 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
       <c r="H34" s="1"/>
     </row>
   </sheetData>

--- a/tests/testMaterials/CDS_SPARSE_2014_2015.xlsx
+++ b/tests/testMaterials/CDS_SPARSE_2014_2015.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\tests\testMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B273BB-54B2-4251-B75C-4FF8A4A312A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126C5687-FF11-4DBC-9387-72D9088EF9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,22 +42,7 @@
     <t>any-aid</t>
   </si>
   <si>
-    <t>within-4-years</t>
-  </si>
-  <si>
-    <t>4-5-years</t>
-  </si>
-  <si>
-    <t>5-6-years</t>
-  </si>
-  <si>
-    <t>total-graduated</t>
-  </si>
-  <si>
     <t>exemptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6-year graduation-rate</t>
   </si>
   <si>
     <t>initial</t>
@@ -68,28 +53,30 @@
   <si>
     <t>stafford-loan</t>
   </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>4 year</t>
+  </si>
+  <si>
+    <t>5 year</t>
+  </si>
+  <si>
+    <t>6 year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,10 +102,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,28 +384,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -431,40 +404,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
         <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -480,7 +453,7 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
@@ -489,7 +462,7 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
@@ -524,7 +497,7 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
@@ -533,7 +506,7 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
@@ -568,7 +541,7 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
@@ -577,7 +550,7 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
@@ -612,7 +585,7 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
@@ -621,7 +594,7 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
@@ -640,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -656,7 +629,7 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
@@ -665,7 +638,7 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
@@ -700,7 +673,7 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
@@ -709,7 +682,7 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
@@ -744,7 +717,7 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
@@ -753,7 +726,7 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
@@ -788,7 +761,7 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
@@ -797,7 +770,7 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
@@ -832,7 +805,7 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
@@ -841,7 +814,7 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
@@ -876,7 +849,7 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
@@ -885,7 +858,7 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
@@ -920,7 +893,7 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
@@ -929,7 +902,7 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
@@ -964,7 +937,7 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
@@ -973,7 +946,7 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
@@ -1008,7 +981,7 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
@@ -1017,17 +990,17 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1052,7 +1025,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
@@ -1061,17 +1034,17 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1096,7 +1069,7 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
@@ -1105,17 +1078,17 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1140,7 +1113,7 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
@@ -1149,17 +1122,17 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1184,7 +1157,7 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
@@ -1193,20 +1166,20 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1228,7 +1201,7 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
@@ -1237,20 +1210,20 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1272,7 +1245,7 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
@@ -1281,20 +1254,20 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1316,7 +1289,7 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
@@ -1325,20 +1298,20 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1360,7 +1333,7 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
@@ -1369,23 +1342,23 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1404,7 +1377,7 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
@@ -1413,23 +1386,23 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1448,7 +1421,7 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
@@ -1457,23 +1430,23 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1492,7 +1465,7 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
@@ -1501,382 +1474,27 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>69</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>158</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>256</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>483</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>83</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>79</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>85.6</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>83</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
